--- a/DOM_Banner/output/dept_banner/Ahmad Iftikhar_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Ahmad Iftikhar_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Environmental Sciences, COMSATS University Islamabad, Islamabad, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Islamabad, Pakistan; Asian Disaster Preparedness Center (ADPC), Bangkok, Thailand; Department of Environmental Sciences, COMSATS University Islamabad, Islamabad, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Islamabad, Pakistan; Department of Agronomy, Muhammad Nawaz Sharif University of Agriculture, Multan, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Islamabad, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Islamabad, Pakistan; Hainan Key Laboratory for Sustainable Utilization of Tropical Bioresource, College of Tropical Crops, Hainan University, Haikou, 570228, Hainan, China; Department of Zoology, University of Education, Vehari Campus, Lahore, Pakistan; Department of Agronomy, Faculty of Agriculture and Environment, The Islamia University of Bahawalpur (IUB), Bahawalpur, Pakistan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283724344</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Assessment of land use/land cover changes and its effect on land surface temperature using remote sensing techniques in Southern Punjab, Pakistan</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-06-29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Environmental Science and Pollution Research</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11356-022-21650-8</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35768713</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11356-022-21650-8</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>College of Engineering (Key Laboratory for Clean Renewable Energy Utilization Technology, Ministry of Agriculture), China Agricultural University, Beijing, 100083, PR China; Department of Environmental Sciences, COMSATS University Islamabad, Vehari-campus, Vehari, 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari-campus, Vehari, 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari-campus, Vehari, 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari-campus, Vehari, 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari-campus, Vehari, 61100, Pakistan; Department of Agronomy, PMAS-Arid Agriculture University, Rawalpindi, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari-campus, Vehari, 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari-campus, Vehari, 61100, Pakistan; College of Engineering (Key Laboratory for Clean Renewable Energy Utilization Technology, Ministry of Agriculture), China Agricultural University, Beijing, 100083, PR China; College of Engineering (Key Laboratory for Clean Renewable Energy Utilization Technology, Ministry of Agriculture), China Agricultural University, Beijing, 100083, PR China; Center of Excellence in Environmental Studies, King Abdulaziz University, P.O. Box 80216, Jeddah, 21589, Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3216999310</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Nano agrochemical zinc oxide influences microbial activity, carbon, and nitrogen cycling of applied manures in the soil-plant system</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Environmental Pollution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.envpol.2021.118559</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34801625</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.envpol.2021.118559</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Institute of Biological and Environmental Sciences, School of Biological Sciences, University of Aberdeen, Aberdeen, UK; Institute of Soil and Environmental Sciences, University of Agriculture, Faisalabad, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department of Environmental Sciences, Shaheed Benazir Bhutto University, Khyber Pakhtunkhwa, Pakistan; School of Biological Sciences, The University of Western Australia, Perth, Australia; PSRI Institute for protection and ecology of the Republic of Srpska, Banja Luka, Bosnia and Herzegovina; Department of Energy Systems Engineering, Seoul National University, Seoul, Republic of Korea; School of Natural Science, National University of Science and Technology (NUST), Islamabad, Pakistan; Deptartment of Environmental Science, University of Kashmir, Srinagar, India</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4302290918</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Types, sources, socioeconomic impacts, and control strategies of environmental noise: a review</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-10-06</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Environmental Science and Pollution Research</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11356-022-23328-7</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36201075</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11356-022-23328-7</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>COMSATS University Islamabad; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department System-Ecotoxicology, Helmholtz Centre for Environmental Research – UFZ, Leipzig, Germany; Department of Evolutionary Ecology and Environmental Toxicology, Goethe University Frankfurt, Frankfurt Am Main, Germany</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307952481</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Toxicity of ZnO and Fe2O3 nano-agro-chemicals to soil microbial activities, nitrogen utilization, and associated human health risks</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-10-29</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Environmental Sciences Europe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12302-022-00687-z</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12302-022-00687-z</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, 61100, Pakistan; School of Agriculture and Biology, Shanghai Jiao Tong University/Key Laboratory of Urban Agriculture by Ministry of Agriculture of China, Shanghai, 200240, People's Republic of China; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, 61100, Pakistan; School of Agriculture and Biology, Shanghai Jiao Tong University/Key Laboratory of Urban Agriculture by Ministry of Agriculture of China, Shanghai 200240, China; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, 61100, Pakistan; Department of Management Sciences, COMSATS University Islamabad, Vehari Campus, Pakistan; Soil Science Department, Urmia University, Urmia, I.R., Iran; Department of Environmental Engineering and Management, Technical University Gheorghe Asachi of Iasi, Iasi 700050, Romania</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4213363475</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Biosorption and health risk assessment of arsenic contaminated water through cotton stalk biochar</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Surfaces and Interfaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.surfin.2022.101806</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.surfin.2022.101806</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>PirMehr Ali Shah Arid Agriculture University; Institute of Soil Science, PirMehr Ali Shah Arid Agriculture University, Rawalpindi, Pakistan; Center for Scientific and Technical Research On Arid Regions (CRSTRA), Biophysical Environment Station, Touggourt, Algeria; Department of Soil and Environmental Sciences, Faculty of Crop Production Sciences, The University of Agriculture, Peshawar, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari, Pakistan; Institute of Soil Science, PirMehr Ali Shah Arid Agriculture University, Rawalpindi, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari, Pakistan; Institute of Soil Science, PirMehr Ali Shah Arid Agriculture University, Rawalpindi, Pakistan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206204487</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Bacterial Redox Cycling of Manganese in Calcareous Soil Enhances the Nutrients Bioavailability to Wheat</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-01-13</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of Soil Science and Plant Nutrition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s42729-021-00725-4</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s42729-021-00725-4</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Soil Science, University College of Agriculture and Environmental Sciences, The Islamia University of Bahawalpur, Bahawalpur, Pakistan; Department of Soil Science, University College of Agriculture and Environmental Sciences, The Islamia University of Bahawalpur, Bahawalpur, Pakistan; Department of Soil Science, University College of Agriculture and Environmental Sciences, The Islamia University of Bahawalpur, Bahawalpur, Pakistan; School of Agriculture, Food and Wine, The University of Adelaide, South Australia, Australia; College of Natural Resources and Environment, South China Agricultural University, Guangzhou, P.R. China; Department of Environmental Sciences, Bahauddin Zakariya University, Multan, Pakistan; Department of Soil Science, University College of Agriculture and Environmental Sciences, The Islamia University of Bahawalpur, Bahawalpur, Pakistan; Department of Soil Science, University College of Agriculture and Environmental Sciences, The Islamia University of Bahawalpur, Bahawalpur, Pakistan; Department of Soil Science, University College of Agriculture and Environmental Sciences, The Islamia University of Bahawalpur, Bahawalpur, Pakistan; Department of Environmental Science, Faculty of Agriculture &amp; Environment, The Islamia University of Bahawalpur, Bahawalpur, Pakistan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225929417</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Silicon improves salinity tolerance in crop plants: Insights into photosynthesis, defense system, and production of phytohormones</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Elsevier eBooks</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/b978-0-323-91225-9.00022-4</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/b978-0-323-91225-9.00022-4</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Ministry of Science and Technology, Ministry of Education, Shanghai Urban Forest Ecosystem Research Station, National Forestry and Grassland Administration, School of Agriculture and Biology, Shanghai Jiao Tong University, 800 Dongchuan Rd, Shanghai 200240, China.; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Ministry of Science and Technology, Ministry of Education, Shanghai Urban Forest Ecosystem Research Station, National Forestry and Grassland Administration, School of Agriculture and Biology, Shanghai Jiao Tong University, 800 Dongchuan Rd, Shanghai 200240, China.; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Ministry of Science and Technology, Ministry of Education, Shanghai Urban Forest Ecosystem Research Station, National Forestry and Grassland Administration, School of Agriculture and Biology, Shanghai Jiao Tong University, 800 Dongchuan Rd, Shanghai 200240, China.; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari, 61100, Pakistan.; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Ministry of Science and Technology, Ministry of Education, Shanghai Urban Forest Ecosystem Research Station, National Forestry and Grassland Administration, School of Agriculture and Biology, Shanghai Jiao Tong University, 800 Dongchuan Rd, Shanghai 200240, China.; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Ministry of Science and Technology, Ministry of Education, Shanghai Urban Forest Ecosystem Research Station, National Forestry and Grassland Administration, School of Agriculture and Biology, Shanghai Jiao Tong University, 800 Dongchuan Rd, Shanghai 200240, China.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226110284</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Genome Resource of &lt;i&gt;Ancylobacter pratisalsi&lt;/i&gt; E130&lt;sup&gt;T&lt;/sup&gt;: A Novel Plant-Growth-Promoting Bacterium Isolated from the Rhizosphere</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Phytopathology</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>American Phytopathological Society</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1094/phyto-06-21-0251-a</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>unspecified-oa</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34353121</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1094/phyto-06-21-0251-a</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Institute of Soil and Environmental Sciences, University of Agriculture, Faisalabad 38040, Pakistan; Department of Environmental Sciences, Vehari-Campus, COMSATS University Islamabad, Vehari 61100, Pakistan; Institute of Soil and Environmental Sciences, University of Agriculture, Faisalabad 38040, Pakistan; Institute of Soil and Environmental Sciences, University of Agriculture, Faisalabad 38040, Pakistan; Institute of Soil and Environmental Sciences, University of Agriculture, Faisalabad 38040, Pakistan; Department of Soil and Environmental Sciences, Faculty of Crop Production Sciences, The University of Agriculture, Peshawar 25130, Pakistan; Institute of Soil and Environmental Sciences, University of Agriculture, Faisalabad 38040, Pakistan; Department of Environmental Sciences, Vehari-Campus, COMSATS University Islamabad, Vehari 61100, Pakistan; Punjab Bioenergy Institute, University of Agriculture, Faisalabad 38040, Pakistan; Department of Chemical, Pharmaceutical and Agricultural Sciences (DOCPAS), University of Ferrara, 44121 Ferrara, Italy; Department of Agricultural and Forestry Sciences (DAFNE), University of Tuscia, 01100 Viterbo, Italy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4303685545</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Zeolite-Assisted Immobilization and Health Risks of Potentially Toxic Elements in Wastewater-Irrigated Soil under Brinjal (Solanum melongena) Cultivation</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-10-08</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Agronomy</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/agronomy12102433</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/agronomy12102433</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari 61100, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari 61100, Pakistan; Department of Soil and Environmental Sciences, Faculty of Crop Production Sciences, The University of Agriculture, Peshawar 25130, Pakistan; Center for Scientific and Technical Research on Arid Regions, Biophysical Environment Station, Touggourt 30240, Algeria; Department of Civil Construction and Environmental Engineering (DICEA), Faculty of Civil and Industrial Engineering, Sapienza University of Rome, Via Eudossiana 18, 00184 Rome, Italy; Department of Civil Construction and Environmental Engineering (DICEA), Faculty of Civil and Industrial Engineering, Sapienza University of Rome, Via Eudossiana 18, 00184 Rome, Italy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308325228</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Activated Biochar Is an Effective Technique for Arsenic Removal from Contaminated Drinking Water in Pakistan</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-11-04</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Sustainability</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/su142114523</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/su142114523</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Institute of Biotechnology and Genetic Engineering (Health Division), The University of Agriculture, Peshawar, Khyber Pakhtunkhwa, Pakistan; Institute of Biotechnology and Genetic Engineering (Health Division), The University of Agriculture, Peshawar, Khyber Pakhtunkhwa, Pakistan; Institute of Radiotherapy and Nuclear Medicine (IRNUM), Peshawar, Khyber Pakhtunkhwa, Pakistan; Institute of Radiotherapy and Nuclear Medicine (IRNUM), Peshawar, Khyber Pakhtunkhwa, Pakistan; Research Center for Advanced Materials Science (RCAMS), King Khalid University, Abha, Saudi Arabia; Khyber Medical College Peshawar, Peshawar, Pakistan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308576892</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Risk association of RANKL and OPG gene polymorphism with breast cancer to bone metastasis in Pashtun population of Khyber Pakhtunkhwa, Pakistan</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-11-08</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>PLOS ONE</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Public Library of Science</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0276813</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36346787</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0276813</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Agriculture and Biophotonics Division, National Institute of Lasers and Optronics College, Pakistan Institute of Engineering and Applied Sciences, Nilore, 45650 Islamabad Pakistan.; Honey Bee Research Institute, Pakistan Agricultural Research Council (PARC), Islamabad, Pakistan; Agriculture and Biophotonics Division, National Institute of Lasers and Optronics College, Pakistan Institute of Engineering and Applied Sciences, Nilore, Pakistan; Agriculture and Biophotonics Division, National Institute of Lasers and Optronics College, Pakistan Institute of Engineering and Applied Sciences, Nilore, Pakistan; Institute of Radiotherapy and Nuclear Medicine (IRNUM), Peshawar, Pakistan</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224246523</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Classification of Sidr honey and detection of sugar adulteration using right angle fluorescence spectroscopy and chemometrics</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-04-09</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>European Food Research and Technology</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00217-022-04008-9</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35431646</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00217-022-04008-9</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,75 +1496,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>the University of Agriculture, Department of Agronomy, Peshawar, Pakistan; the University of Agriculture, Department of Agronomy, Peshawar, Pakistan; The University of Agriculture,  Pakistan; The University of Agriculture,  Pakistan; The University of Agriculture Institute of Biotechnology and Genetic Engineering Peshawar Pakistan</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3180006779</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Role of beneficial microbes with nitrogen and phosphorous levels on canola productivity</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Brazilian Journal of Biology</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Instituto Internacional de Ecologia (Brazil)</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1590/1519-6984.227703</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34287525</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1590/1519-6984.227703</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,75 +1583,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Department of Environmental Sciences COMSATS University Islamabad, Vehari Campus Islamabad Pakistan; Department of Bioinformatics and Biotechnology Government College University Faisalabad Pakistan; College of Agriculture Bahauddin Zakariya University, Bahadur Sub-Campus Layyah Multan Pakistan; Department of Environmental Sciences COMSATS University Islamabad, Vehari Campus Islamabad Pakistan; College of Agriculture Bahauddin Zakariya University, Bahadur Sub-Campus Layyah Multan Pakistan; Department of Environmental Sciences COMSATS University Islamabad, Vehari Campus Islamabad Pakistan; Department of Environmental Sciences COMSATS University Islamabad, Vehari Campus Islamabad Pakistan; College of Agriculture Bahauddin Zakariya University, Bahadur Sub-Campus Layyah Multan Pakistan; Institute of Molecular Biology and Biotechnology Bahauddin Zakariya University Multan Pakistan; Department of Environmental Sciences COMSATS University Islamabad, Vehari Campus Islamabad Pakistan; Department of Plant Sciences Quaid-e-Azam University Islamabad Islamabad Pakistan; Department of Environmental Sciences COMSATS University Islamabad, Vehari Campus Islamabad Pakistan; Department of Environmental Sciences COMSATS University Islamabad, Vehari Campus Islamabad Pakistan; Functional Materials Laboratory (FML), School of Materials Science and Engineering Xi'an University of Architecture and Technology Xi'an Shaanxi China</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224326555</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Efficacy of organic-based carrier material for plant beneficial rhizobacteria application in okra under normal and salt-affected soil conditions</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Journal of Applied Microbiology</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/jam.15589</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35462450</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/jam.15589</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,75 +1670,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station/Shanghai Cooperative Innovation Center of Agri-Seeds, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, P.R.China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station/Shanghai Cooperative Innovation Center of Agri-Seeds, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, P.R.China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station/Shanghai Cooperative Innovation Center of Agri-Seeds, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, P.R.China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station/Shanghai Cooperative Innovation Center of Agri-Seeds, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, P.R.China; Department of Environmental Sciences, COMSATS University Islamabad, Vehari-Campus, Vehari 61100, Pakistan; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station/Shanghai Cooperative Innovation Center of Agri-Seeds, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, P.R.China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station/Shanghai Cooperative Innovation Center of Agri-Seeds, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, P.R.China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station/Shanghai Cooperative Innovation Center of Agri-Seeds, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, P.R.China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station/Shanghai Cooperative Innovation Center of Agri-Seeds, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, P.R.China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station/Shanghai Cooperative Innovation Center of Agri-Seeds, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, P.R.China</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4229441945</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>A transferred regulator that contributes to Xanthomonas oryzae pv. oryzicola oxidative stress adaptation and virulence by regulating the expression of cytochrome bd oxidase genes</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Journal of Integrative Agriculture</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2095-3119(21)63801-7</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2095-3119(21)63801-7</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,39 +1757,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Key Laboratory of Urban Agriculture by Ministry of Agriculture of China, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai, China; Key Laboratory of Urban Agriculture by Ministry of Agriculture of China, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai, China; Key Laboratory of Urban Agriculture by Ministry of Agriculture of China, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai, China; Key Laboratory of Urban Agriculture by Ministry of Agriculture of China, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai, China; Key Laboratory of Urban Agriculture by Ministry of Agriculture of China, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai, China; Key Laboratory of Urban Agriculture by Ministry of Agriculture of China, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai, China; Department of Environmental Sciences, COMSATS University Islamabad, Vehari Campus, Vehari 61100, Pakistan; Key Laboratory of Urban Agriculture by Ministry of Agriculture of China, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai, China; Key Laboratory of Urban Agriculture by Ministry of Agriculture of China, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai, China; Key Laboratory of Urban Agriculture by Ministry of Agriculture of China, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai, China</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226000245</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Identification and Characterization of Rice Circular RNAs Responding to &lt;i&gt;Xanthomonas oryzae&lt;/i&gt; pv. &lt;i&gt;oryzae&lt;/i&gt; Invasion</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Phytopathology</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>American Phytopathological Society</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1094/phyto-06-21-0235-r</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1717,35 +1797,40 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34420356</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1094/phyto-06-21-0235-r</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1759,39 +1844,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Quaid-i-Azam University; Department of Plant Sciences, Faculty of Biological Sciences, Quaid-i-Azam University, Islamabad, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department of Soil and Climate Sciences, Faculty of Agriculture Sciences, The University of Haripur, Haripur, Pakistan; Department of Plant Sciences, Faculty of Biological Sciences, Quaid-i-Azam University, Islamabad, Pakistan; Department of Plant Sciences, Faculty of Biological Sciences, Quaid-i-Azam University, Islamabad, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department of Biosciences, University of Wah, Wah, Pakistan; Department of Plant Sciences, Faculty of Biological Sciences, Quaid-i-Azam University, Islamabad, Pakistan; Department of Plant Sciences, Faculty of Biological Sciences, Quaid-i-Azam University, Islamabad, Pakistan; Department of Plant Sciences, Faculty of Biological Sciences, Quaid-i-Azam University, Islamabad, Pakistan</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4286791999</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Biosorption potential of Bacillus anthracis PM21 for the sequestration of cadmium, chromium, and nickel from contaminated water</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-07-24</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>International Journal of Environmental Science and Technology</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13762-022-04372-9</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1799,35 +1884,40 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13762-022-04372-9</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,75 +1931,80 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1Rawalpindi Medical University, Rawalpindi, Pakistan; 1Rawalpindi Medical University, Rawalpindi, Pakistan; 1Rawalpindi Medical University, Rawalpindi, Pakistan; 1Rawalpindi Medical University, Rawalpindi, Pakistan; 1Rawalpindi Medical University, Rawalpindi, Pakistan; 2Department of Medicine, King Edward Medical University, Lahore, Pakistan; 3Baystate Medical Center, Springfield, MA; 4Internal Medicine, Albany Medical Center, Albany, NY; 5Department of Internal Medicine, Northwell Health, New York, NY; 1Rawalpindi Medical University, Rawalpindi, Pakistan; 6The University of Arizona, Tucson, AZ; 7Department of Hematology and Medical Oncology, Taussig Cancer Institute, Cleveland Clinic, Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310112881</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Second Primary Malignancy in Waldenström Macroglobulinemia: Insights from a Population-Based Analysis</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-165191</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-165191</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1923,75 +2018,80 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Ministry of Science and Technology, Ministry of Education, Shanghai Urban Forest Ecosystem Research Station, National Forestry and Grassland Administration, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China; Southwest China Mountain Agricultural Environment Key Laboratory, Ministry of Agriculture and Rural Areas, Institute of Agricultural Resources and Environment, Sichuan Academy of Agricultural Sciences, Chengdu 610066, China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Ministry of Science and Technology, Ministry of Education, Shanghai Urban Forest Ecosystem Research Station, National Forestry and Grassland Administration, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Ministry of Science and Technology, Ministry of Education, Shanghai Urban Forest Ecosystem Research Station, National Forestry and Grassland Administration, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China; Southwest China Mountain Agricultural Environment Key Laboratory, Ministry of Agriculture and Rural Areas, Institute of Agricultural Resources and Environment, Sichuan Academy of Agricultural Sciences, Chengdu 610066, China.; Southwest China Mountain Agricultural Environment Key Laboratory, Ministry of Agriculture and Rural Areas, Institute of Agricultural Resources and Environment, Sichuan Academy of Agricultural Sciences, Chengdu 610066, China.; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Ministry of Science and Technology, Ministry of Education, Shanghai Urban Forest Ecosystem Research Station, National Forestry and Grassland Administration, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China; Department of Environmental Sciences, COMSATS University Islamabad, Vehari-Campus, Vehari-61100, Pakistan; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Ministry of Science and Technology, Ministry of Education, Shanghai Urban Forest Ecosystem Research Station, National Forestry and Grassland Administration, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Ministry of Science and Technology, Ministry of Education, Shanghai Urban Forest Ecosystem Research Station, National Forestry and Grassland Administration, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China; Southwest China Mountain Agricultural Environment Key Laboratory, Ministry of Agriculture and Rural Areas, Institute of Agricultural Resources and Environment, Sichuan Academy of Agricultural Sciences, Chengdu 610066, China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Ministry of Science and Technology, Ministry of Education, Shanghai Urban Forest Ecosystem Research Station, National Forestry and Grassland Administration, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225658218</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Genome Resource of &lt;i&gt;Pseudomonas chlororaphis&lt;/i&gt; L5734: A Bacterium Antagonistic to the Mulberry Gray Mold Pathogen &lt;i&gt;Botrytis cinerea&lt;/i&gt;</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Plant Disease</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>American Phytopathological Society</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1094/pdis-10-21-2215-a</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>unspecified-oa</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35259003</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1094/pdis-10-21-2215-a</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2005,39 +2105,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Department of Soil and Environmental Sciences, Muhammad Nawaz Shareef University of Agriculture, Multan, Pakistan; Department of Soil and Environmental Sciences, Muhammad Nawaz Shareef University of Agriculture, Multan, Pakistan; Department of Agronomy, Muhammad Nawaz Shareef University of Agriculture, Multan, Pakistan; University of Koblenz-Landau, Koblenz, Germany; Department of Soil Science, Bahauddin Zakariya University, Multan, Pakistan; Department of Environmental Sciences, COMSATS University Islamabad, Vehari, Pakistan; Department of Soil and Environmental Sciences, Muhammad Nawaz Shareef University of Agriculture, Multan, Pakistan; Department of Soil and Environmental Sciences, Muhammad Nawaz Shareef University of Agriculture, Multan, Pakistan</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226084370</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Rice Interactions with Plant Growth Promoting Rhizobacteria</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Springer eBooks</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1007/978-981-16-4955-4_14</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2045,35 +2145,40 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-981-16-4955-4_14</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -2087,75 +2192,80 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283371276</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Kajian Penyimpanan Serbuk Kopi Segera dengan Pembungkus boleh Dimakan daripada Rumpai Laut Kappaphycus alvarezii</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-02-28</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Sains Malaysiana</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Penerbit Universiti Kebangsaan Malaysia</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://doi.org/10.17576/jsm-2022-5102-19</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>https://doi.org/10.17576/jsm-2022-5102-19</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2167,41 +2277,36 @@
           <t>Iftikhar Ahmad</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://openalex.org/W4285491670</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Optimality Conditions and Duality for Nondifferentiable Multiobjective Fractional Programming Problems</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2022-07-15</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Chapman and Hall/CRC eBooks</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1201/9781003289883-5</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2209,35 +2314,40 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>https://doi.org/10.1201/9781003289883-5</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -2251,75 +2361,80 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Allied Hospital Faisalabad; Sheikh Zayed Hospital, Rahim Yar Khan; Federal Government Polyclinic (Post-Graduate Medical institute) Islamabad; Institute of Radiotherapy and Nuclear Medicine (IRNUM), Peshawar</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4294782978</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Hofstetter’s equations overestimate the amplitude of accommodation in human eye: An analyses of 5433 subjects</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2022-09-06</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Research Square (Research Square)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Research Square (United States)</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>https://doi.org/10.21203/rs.3.rs-1980656/v1</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>https://doi.org/10.21203/rs.3.rs-1980656/v1</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2333,75 +2448,80 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4296175853</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>The Frequency of Newly Diagnosed Diabetes Mellitus in Acute Ischemic Stroke Patients</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2022-07-30</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Pakistan Journal of Medical and Health Sciences</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>https://doi.org/10.53350/pjmhs22167748</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>https://doi.org/10.53350/pjmhs22167748</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2415,75 +2535,80 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4296175914</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Frequency of Vitamin D Deficiency among Patients Presenting with Stroke</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2022-07-30</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Pakistan Journal of Medical and Health Sciences</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>https://doi.org/10.53350/pjmhs22167731</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>https://doi.org/10.53350/pjmhs22167731</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2497,75 +2622,80 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Shanghai Cooperative Innovation Center for Modern Seed Industry, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Shanghai Cooperative Innovation Center for Modern Seed Industry, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Shanghai Cooperative Innovation Center for Modern Seed Industry, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Shanghai Cooperative Innovation Center for Modern Seed Industry, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Shanghai Cooperative Innovation Center for Modern Seed Industry, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Shanghai Cooperative Innovation Center for Modern Seed Industry, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China; Department of Environmental Sciences, COMSATS University Islamabad, Vehari-Campus, Vehari 61100, Pakistan; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Shanghai Cooperative Innovation Center for Modern Seed Industry, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Shanghai Cooperative Innovation Center for Modern Seed Industry, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China; State Key Lab for Rice Biology, China National Rice Research Institute, Hangzhou 310006, China; Shanghai Yangtze River Delta Eco-Environmental Change and Management Observation and Research Station, Shanghai Cooperative Innovation Center for Modern Seed Industry, School of Agriculture and Biology, Shanghai Jiao Tong University, Shanghai 200240, China</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307944166</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Next Generation Sequencing and Comparative Genomic Analysis Reveal Extreme Plasticity of Two Burkholderia glumae Strains HN1 and HN2</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022-10-30</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Pathogens</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/pathogens11111265</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36365016</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/pathogens11111265</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2579,75 +2709,80 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308983110</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Potensi Bioremediasi Plastik Polietilena Tereftalat</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022-09-30</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Sains Malaysiana</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Penerbit Universiti Kebangsaan Malaysia</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>https://doi.org/10.17576/jsm-2022-5109-27</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>https://doi.org/10.17576/jsm-2022-5109-27</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2661,75 +2796,80 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308983375</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Starch Film Incorporated with Cinnamon Oils Optimally Prepared by using Response Surface Methodology</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2022-09-30</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Sains Malaysiana</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Penerbit Universiti Kebangsaan Malaysia</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>https://doi.org/10.17576/jsm-2022-5109-15</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>https://doi.org/10.17576/jsm-2022-5109-15</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2743,75 +2883,80 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>1Rawalpindi Medical University, Rawalpindi, Pakistan; 1Rawalpindi Medical University, Rawalpindi, Pakistan; 1Rawalpindi Medical University, Rawalpindi, Pakistan; 2Department of Internal Medicine, Northwell Health, New York, NY; 1Rawalpindi Medical University, Rawalpindi, Pakistan; 3Department of Medicine, King Edward Medical University, Lahore, Pakistan; 4Internal Medicine, Albany Medical Center, Albany, NY; 5Department of Stem Cell Transplantation and Cellular Therapy, The University of Texas MD Anderson Cancer Center, Houston, TX; 6The University of Arizona, Tucson, AZ; 7University of Arizona Cancer Center, Division of Hematology and Medical Oncology, Tucson, AZ; 8Section of Hematology and Oncology, Boston Medical Center, Boston, MA; 9Leukemia Service, Department of Medicine, Roswell Park Comprehensive Cancer Center, Buffalo, NY; 10Department of Hematology and Medical Oncology, Taussig Cancer Institute, Cleveland Clinic, Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310124913</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>R-CHOP Versus R-EPOCH in Primary Mediastinal Large B-Cell Lymphoma: A Systematic Review and Meta-Analysis</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-168487</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-168487</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>article</t>
         </is>
